--- a/spliced/walkingToRunning/2023-03-27_19-47-09/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-47-09/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.376924514770508</v>
+        <v>-9.514568328857422</v>
       </c>
       <c r="B2" t="n">
-        <v>-16.26252555847168</v>
+        <v>-7.287443161010742</v>
       </c>
       <c r="C2" t="n">
-        <v>1.286692142486572</v>
+        <v>-4.99766206741333</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-9.587001800537109</v>
+        <v>-7.823380947113037</v>
       </c>
       <c r="B3" t="n">
-        <v>-14.14869499206543</v>
+        <v>-6.074180126190186</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.664586067199707</v>
+        <v>-4.752357959747314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-3.424562931060791</v>
+        <v>-3.637385606765747</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.958045482635498</v>
+        <v>-2.725360631942749</v>
       </c>
       <c r="C4" t="n">
-        <v>-9.69240665435791</v>
+        <v>-3.621543645858765</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-9.514568328857422</v>
+        <v>-10.94634628295898</v>
       </c>
       <c r="B5" t="n">
-        <v>-7.287443161010742</v>
+        <v>-2.156153917312622</v>
       </c>
       <c r="C5" t="n">
-        <v>-4.99766206741333</v>
+        <v>-9.503169059753418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-7.823380947113037</v>
+        <v>66.69537353515625</v>
       </c>
       <c r="B6" t="n">
-        <v>-6.074180126190186</v>
+        <v>-35.59264755249023</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.752357959747314</v>
+        <v>-8.555927276611328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-3.637385606765747</v>
+        <v>-6.669784069061279</v>
       </c>
       <c r="B7" t="n">
-        <v>-2.725360631942749</v>
+        <v>-7.415677547454834</v>
       </c>
       <c r="C7" t="n">
-        <v>-3.621543645858765</v>
+        <v>10.31031608581543</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-10.94634628295898</v>
+        <v>-6.682662963867188</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.156153917312622</v>
+        <v>0.0761735439300537</v>
       </c>
       <c r="C8" t="n">
-        <v>-9.503169059753418</v>
+        <v>-2.404594898223877</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>66.69537353515625</v>
+        <v>-4.13407564163208</v>
       </c>
       <c r="B9" t="n">
-        <v>-35.59264755249023</v>
+        <v>-28.60597419738769</v>
       </c>
       <c r="C9" t="n">
-        <v>-8.555927276611328</v>
+        <v>8.249073028564453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.669784069061279</v>
+        <v>-12.32790374755859</v>
       </c>
       <c r="B10" t="n">
-        <v>-7.415677547454834</v>
+        <v>6.361005783081055</v>
       </c>
       <c r="C10" t="n">
-        <v>10.31031608581543</v>
+        <v>-18.50937080383301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-6.682662963867188</v>
+        <v>-0.0332281589508056</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0761735439300537</v>
+        <v>-8.605781555175781</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.404594898223877</v>
+        <v>-5.739476203918457</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.13407564163208</v>
+        <v>-14.07493591308594</v>
       </c>
       <c r="B12" t="n">
-        <v>-28.60597419738769</v>
+        <v>-31.83533477783203</v>
       </c>
       <c r="C12" t="n">
-        <v>8.249073028564453</v>
+        <v>-4.278344631195068</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-12.32790374755859</v>
+        <v>2.169375419616699</v>
       </c>
       <c r="B13" t="n">
-        <v>6.361005783081055</v>
+        <v>6.375825881958008</v>
       </c>
       <c r="C13" t="n">
-        <v>-18.50937080383301</v>
+        <v>16.93547058105469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.0332281589508056</v>
+        <v>-3.887731313705444</v>
       </c>
       <c r="B14" t="n">
-        <v>-8.605781555175781</v>
+        <v>1.673339605331421</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.739476203918457</v>
+        <v>2.357208251953125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-14.07493591308594</v>
+        <v>3.855255126953125</v>
       </c>
       <c r="B15" t="n">
-        <v>-31.83533477783203</v>
+        <v>-33.85980224609375</v>
       </c>
       <c r="C15" t="n">
-        <v>-4.278344631195068</v>
+        <v>3.360419273376465</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.169375419616699</v>
+        <v>30.62849044799805</v>
       </c>
       <c r="B16" t="n">
-        <v>6.375825881958008</v>
+        <v>7.678761005401611</v>
       </c>
       <c r="C16" t="n">
-        <v>16.93547058105469</v>
+        <v>-9.237998962402344</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-3.887731313705444</v>
+        <v>-11.34725379943848</v>
       </c>
       <c r="B17" t="n">
-        <v>1.673339605331421</v>
+        <v>-16.60527801513672</v>
       </c>
       <c r="C17" t="n">
-        <v>2.357208251953125</v>
+        <v>-12.14533615112305</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.855255126953125</v>
+        <v>6.219323635101318</v>
       </c>
       <c r="B18" t="n">
-        <v>-33.85980224609375</v>
+        <v>-10.72451782226562</v>
       </c>
       <c r="C18" t="n">
-        <v>3.360419273376465</v>
+        <v>26.53547286987305</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>30.62849044799805</v>
+        <v>-4.500537395477295</v>
       </c>
       <c r="B19" t="n">
-        <v>7.678761005401611</v>
+        <v>9.60122776031494</v>
       </c>
       <c r="C19" t="n">
-        <v>-9.237998962402344</v>
+        <v>-3.719542026519776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-11.34725379943848</v>
+        <v>-59.25642776489258</v>
       </c>
       <c r="B20" t="n">
-        <v>-16.60527801513672</v>
+        <v>-72.75296783447266</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.14533615112305</v>
+        <v>58.0263671875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6.219323635101318</v>
+        <v>43.50658416748047</v>
       </c>
       <c r="B21" t="n">
-        <v>-10.72451782226562</v>
+        <v>8.478635787963867</v>
       </c>
       <c r="C21" t="n">
-        <v>26.53547286987305</v>
+        <v>-37.43244552612305</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-19.30278778076172</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-6.771676063537598</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-17.75639343261719</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-18.29881477355957</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-37.5744743347168</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.842066764831543</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.273155212402344</v>
+      </c>
+      <c r="B24" t="n">
+        <v>8.59691047668457</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-6.313179969787598</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.403256893157959</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.687671661376953</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.856612205505371</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>4.316394805908203</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-26.35572052001953</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-17.98580360412598</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31.11298370361328</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.278896331787109</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-11.80455207824707</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-10.42159271240234</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-19.3218994140625</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-14.07432746887207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6.261336803436279</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-9.548392295837402</v>
+      </c>
+      <c r="C29" t="n">
+        <v>26.6091365814209</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-5.242365837097168</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18.12157821655273</v>
+      </c>
+      <c r="C30" t="n">
+        <v>3.32082748413086</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-17.76671600341797</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-38.77998352050781</v>
+      </c>
+      <c r="C31" t="n">
+        <v>33.62932968139648</v>
       </c>
     </row>
   </sheetData>
